--- a/output.xlsx
+++ b/output.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,13 +422,10 @@
       <c r="F1" t="str">
         <v>Fiction, Mystery, Sci-Fi, Non-Fiction</v>
       </c>
-      <c r="G1" t="str">
-        <v>{"test1":"Test 1","test2":{"test3":"Test 3"}}</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
   </ignoredErrors>
 </worksheet>
 </file>
